--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://azti-my.sharepoint.com/personal/dgarcia_azti_es/Documents/SeaWise/WP$/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{99401C25-C2C6-402D-8EA6-10EC8531D4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD65A83-08FE-4EEE-914F-E77FC6A9AA01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$3:$AX$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$28</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -948,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{E9057882-A69C-49ED-B6AC-BD6F11E375B2}">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{7F127878-7842-4B0B-80FA-2647529D6646}">
       <text>
         <r>
           <rPr>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="356">
   <si>
     <t>SearchID</t>
   </si>
@@ -3357,9 +3357,6 @@
     <t>5-11</t>
   </si>
   <si>
-    <t>Evidence</t>
-  </si>
-  <si>
     <t>Clupea harengus</t>
   </si>
   <si>
@@ -3388,6 +3385,15 @@
   </si>
   <si>
     <t>50,000-100,002</t>
+  </si>
+  <si>
+    <t>fishing mortality _ catch</t>
+  </si>
+  <si>
+    <t>trawling fishing effort</t>
+  </si>
+  <si>
+    <t>exploitation rate</t>
   </si>
 </sst>
 </file>
@@ -3539,6 +3545,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3560,7 +3567,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3846,106 +3852,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX30"/>
+  <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" customWidth="1"/>
     <col min="24" max="24" width="40" customWidth="1"/>
-    <col min="25" max="25" width="32.7109375" customWidth="1"/>
-    <col min="33" max="33" width="21.140625" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="41" width="15.85546875" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
+    <col min="25" max="25" width="32.6640625" customWidth="1"/>
+    <col min="33" max="33" width="21.109375" customWidth="1"/>
+    <col min="34" max="35" width="17.6640625" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" customWidth="1"/>
+    <col min="37" max="37" width="19.109375" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
+    <col min="40" max="40" width="15.88671875" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" customWidth="1"/>
+    <col min="47" max="47" width="18.6640625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="16" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="14" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="11" t="s">
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="12" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-    </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+    </row>
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>251</v>
       </c>
@@ -4150,13 +4156,13 @@
         <v>21</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>343</v>
+        <v>84</v>
       </c>
       <c r="AF3" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>261</v>
       </c>
@@ -4227,7 +4233,7 @@
         <v>217</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA4" s="10">
         <v>2</v>
@@ -4239,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF4" s="10" t="s">
         <v>307</v>
@@ -4256,23 +4262,29 @@
       <c r="AM4" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="AN4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="AQ4" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AU4" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AV4" s="10" t="s">
         <v>201</v>
       </c>
       <c r="AW4" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX4" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AX4" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>261</v>
       </c>
@@ -4334,7 +4346,7 @@
         <v>55</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>59</v>
@@ -4343,7 +4355,7 @@
         <v>217</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA5" s="10">
         <v>2</v>
@@ -4355,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="AD5" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF5" s="10" t="s">
         <v>307</v>
@@ -4366,29 +4378,35 @@
       <c r="AH5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AL5" s="18" t="s">
-        <v>344</v>
+      <c r="AL5" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="AM5" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="AN5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="AQ5" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AV5" s="10" t="s">
         <v>201</v>
       </c>
       <c r="AW5" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX5" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AX5" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>261</v>
       </c>
@@ -4450,7 +4468,7 @@
         <v>55</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W6" s="10" t="s">
         <v>59</v>
@@ -4459,7 +4477,7 @@
         <v>217</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA6" s="10">
         <v>2</v>
@@ -4471,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF6" s="10" t="s">
         <v>307</v>
@@ -4482,29 +4500,35 @@
       <c r="AH6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AL6" s="18" t="s">
-        <v>345</v>
+      <c r="AL6" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="AM6" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="AN6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="AQ6" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AV6" s="10" t="s">
         <v>201</v>
       </c>
       <c r="AW6" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX6" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AX6" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>271</v>
       </c>
@@ -4601,6 +4625,9 @@
       <c r="AM7" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO7" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ7" s="10" t="s">
         <v>166</v>
       </c>
@@ -4620,7 +4647,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>271</v>
       </c>
@@ -4717,6 +4744,9 @@
       <c r="AM8" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO8" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ8" s="10" t="s">
         <v>166</v>
       </c>
@@ -4736,7 +4766,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>271</v>
       </c>
@@ -4833,6 +4863,9 @@
       <c r="AM9" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO9" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ9" s="10" t="s">
         <v>166</v>
       </c>
@@ -4852,7 +4885,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>271</v>
       </c>
@@ -4949,6 +4982,9 @@
       <c r="AM10" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO10" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ10" s="10" t="s">
         <v>166</v>
       </c>
@@ -4968,7 +5004,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>279</v>
       </c>
@@ -5068,6 +5104,9 @@
       <c r="AM11" s="10" t="s">
         <v>161</v>
       </c>
+      <c r="AO11" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="AQ11" s="10" t="s">
         <v>166</v>
       </c>
@@ -5093,7 +5132,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>279</v>
       </c>
@@ -5193,6 +5232,9 @@
       <c r="AM12" s="10" t="s">
         <v>161</v>
       </c>
+      <c r="AO12" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="AQ12" s="10" t="s">
         <v>166</v>
       </c>
@@ -5218,7 +5260,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>279</v>
       </c>
@@ -5318,6 +5360,9 @@
       <c r="AM13" s="10" t="s">
         <v>161</v>
       </c>
+      <c r="AO13" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="AQ13" s="10" t="s">
         <v>166</v>
       </c>
@@ -5343,7 +5388,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>279</v>
       </c>
@@ -5443,6 +5488,12 @@
       <c r="AM14" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="AN14" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO14" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="AQ14" s="10" t="s">
         <v>166</v>
       </c>
@@ -5465,7 +5516,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>279</v>
       </c>
@@ -5565,6 +5616,12 @@
       <c r="AM15" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="AN15" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO15" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="AQ15" s="10" t="s">
         <v>166</v>
       </c>
@@ -5587,7 +5644,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>279</v>
       </c>
@@ -5687,6 +5744,12 @@
       <c r="AM16" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="AN16" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO16" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="AQ16" s="10" t="s">
         <v>166</v>
       </c>
@@ -5709,7 +5772,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>288</v>
       </c>
@@ -5806,6 +5869,9 @@
       <c r="AM17" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO17" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ17" s="10" t="s">
         <v>166</v>
       </c>
@@ -5825,7 +5891,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>288</v>
       </c>
@@ -5922,6 +5988,9 @@
       <c r="AM18" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO18" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ18" s="10" t="s">
         <v>166</v>
       </c>
@@ -5941,7 +6010,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>288</v>
       </c>
@@ -6038,6 +6107,9 @@
       <c r="AM19" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO19" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ19" s="10" t="s">
         <v>166</v>
       </c>
@@ -6057,7 +6129,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>288</v>
       </c>
@@ -6154,6 +6226,9 @@
       <c r="AM20" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO20" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ20" s="10" t="s">
         <v>166</v>
       </c>
@@ -6173,7 +6248,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>288</v>
       </c>
@@ -6270,6 +6345,9 @@
       <c r="AM21" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO21" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ21" s="10" t="s">
         <v>166</v>
       </c>
@@ -6289,7 +6367,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>288</v>
       </c>
@@ -6383,6 +6461,9 @@
       <c r="AM22" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO22" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ22" s="10" t="s">
         <v>166</v>
       </c>
@@ -6402,7 +6483,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>288</v>
       </c>
@@ -6499,6 +6580,9 @@
       <c r="AM23" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO23" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ23" s="10" t="s">
         <v>166</v>
       </c>
@@ -6518,7 +6602,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>288</v>
       </c>
@@ -6612,6 +6696,9 @@
       <c r="AM24" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO24" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ24" s="10" t="s">
         <v>166</v>
       </c>
@@ -6628,7 +6715,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>288</v>
       </c>
@@ -6722,6 +6809,9 @@
       <c r="AM25" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO25" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ25" s="10" t="s">
         <v>166</v>
       </c>
@@ -6738,7 +6828,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>297</v>
       </c>
@@ -6838,6 +6928,9 @@
       <c r="AM26" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO26" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ26" s="10" t="s">
         <v>166</v>
       </c>
@@ -6857,7 +6950,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>297</v>
       </c>
@@ -6957,6 +7050,9 @@
       <c r="AM27" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO27" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ27" s="10" t="s">
         <v>166</v>
       </c>
@@ -6976,7 +7072,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>297</v>
       </c>
@@ -7076,6 +7172,9 @@
       <c r="AM28" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="AO28" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ28" s="10" t="s">
         <v>166</v>
       </c>
@@ -7095,9 +7194,389 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2014</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF29" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL29" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO29" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ29" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR29" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT29" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU29" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV29" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW29" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX29" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2014</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF30" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL30" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM30" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO30" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ30" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT30" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU30" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX30" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2014</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF31" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL31" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM31" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO31" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ31" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT31" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU31" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV31" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW31" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX31" s="10" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7111,14 +7590,14 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3 P4:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3 P4:P1048576" xr:uid="{94D9E4B8-8CAC-4DF7-B103-381F2E763A04}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{CDD3EED4-4DBF-4EF5-89FE-CF293CC9E6AE}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{66955D55-6B86-47ED-A1C8-EF56593D3E89}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AO1048576 AI3:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AR3:AS1048576 AN3:AN1048576" xr:uid="{594C1387-AE3C-4760-B762-6E559D878816}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7128,91 +7607,91 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01D0C1BE-F1CF-481E-9DEF-C3F47861742D}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R29:R1048576 Q3:Q28</xm:sqref>
+          <xm:sqref>Q3:Q31 R32:R1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20F9CC37-131A-42B9-8F83-979A197B2078}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
           <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29748323-CD5F-4931-861D-B58814ED75B7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{544DF5E5-3907-4A71-B9BE-220B97ADC5EB}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BD36B17-8090-4C41-81CE-D463FE20A542}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4CB7196-CE28-4B05-BBD8-74610FD48191}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B2136C9-F8B1-48E0-9FF8-2AEF18AC8DFE}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F87A3F0C-0AAB-4D09-AEDB-06A1AC0832F5}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5737408-7BF9-4819-8D3A-1C8B860094C8}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9E5CF0F-E8C9-4715-9E5B-31233202C042}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D1007E0-C42D-4263-9537-65CAB01FDF95}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E0E886C-57EB-4CC0-93EF-80FA3E3ACE94}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08DAFEBD-4D10-4592-8426-D58C43E6DCDD}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD092EEC-9635-4A23-B39A-38C3C681ED3E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F88A4666-23F0-4643-B15E-8635E95BC5A1}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16FDFCD7-4CD9-4F70-9E07-7559EBA53348}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E27B1E5-1268-4786-94CA-E08C9AB497C6}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AED246B-78BD-4B6C-B85A-7398E223C347}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98C39F1E-6DE8-417C-8077-8E0C203BE60B}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F97DC8F-A365-45BB-9124-070E7CE8EC23}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67B9B494-D832-470F-850F-706DD98F1FC9}">
           <x14:formula1>
             <xm:f>Validation!$AU$3:$AU$15</xm:f>
           </x14:formula1>
@@ -7232,76 +7711,76 @@
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="18" max="18" width="24.42578125" customWidth="1"/>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.44140625" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" customWidth="1"/>
     <col min="42" max="42" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="16" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="14" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="11" t="s">
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
       <c r="AT1" s="9" t="s">
         <v>104</v>
       </c>
@@ -7309,7 +7788,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -7458,7 +7937,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -7515,7 +7994,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -7572,7 +8051,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -7628,7 +8107,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -7673,7 +8152,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -7715,7 +8194,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -7753,7 +8232,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -7788,7 +8267,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -7820,7 +8299,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +8334,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -7887,7 +8366,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -7922,7 +8401,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -7951,7 +8430,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -7980,7 +8459,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -8000,7 +8479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>164</v>
       </c>
@@ -8008,22 +8487,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AP18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AP19" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH23" s="6" t="s">
         <v>117</v>
       </c>
@@ -8058,7 +8537,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH24" t="s">
         <v>131</v>
       </c>
@@ -8084,7 +8563,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
         <v>139</v>
       </c>
@@ -8107,7 +8586,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AJ26" t="s">
         <v>146</v>
       </c>
@@ -8118,7 +8597,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
         <v>149</v>
       </c>
@@ -8129,7 +8608,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
         <v>151</v>
       </c>
@@ -8137,12 +8616,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AP29" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
         <v>153</v>
       </c>
@@ -8165,7 +8644,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH31" s="6" t="s">
         <v>131</v>
       </c>
@@ -8191,7 +8670,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
         <v>155</v>
       </c>
@@ -8217,7 +8696,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AH33" t="s">
         <v>157</v>
       </c>
@@ -8237,7 +8716,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
         <v>159</v>
       </c>
@@ -8252,7 +8731,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>115</v>
       </c>
@@ -8266,7 +8745,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AT36" t="s">
         <v>213</v>
       </c>
@@ -8274,10 +8753,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -8305,84 +8784,84 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="14" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="17" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="11" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="12" t="s">
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-    </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+    </row>
+    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -8483,7 +8962,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -8543,7 +9022,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -8591,7 +9070,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -8642,7 +9121,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -8681,7 +9160,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -8723,7 +9202,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8758,7 +9237,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -8793,7 +9272,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -8825,7 +9304,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -8854,7 +9333,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -8886,7 +9365,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -8915,7 +9394,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -8938,7 +9417,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -8964,7 +9443,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -8981,7 +9460,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q17" t="s">
         <v>121</v>
       </c>
@@ -8992,7 +9471,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>122</v>
       </c>
@@ -9006,7 +9485,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>154</v>
       </c>
@@ -9020,7 +9499,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>158</v>
       </c>
@@ -9031,7 +9510,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
         <v>230</v>
       </c>
@@ -9045,7 +9524,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
         <v>115</v>
       </c>
@@ -9056,7 +9535,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>129</v>
       </c>
@@ -9067,7 +9546,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>143</v>
       </c>
@@ -9075,7 +9554,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>148</v>
       </c>
@@ -9083,7 +9562,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>150</v>
       </c>
@@ -9091,7 +9570,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>152</v>
       </c>
@@ -9105,7 +9584,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>124</v>
       </c>
@@ -9116,7 +9595,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>144</v>
       </c>
@@ -9127,7 +9606,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>125</v>
       </c>
@@ -9138,7 +9617,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>145</v>
       </c>
@@ -9146,7 +9625,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>130</v>
       </c>
@@ -9154,12 +9633,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z34" t="s">
         <v>152</v>
       </c>
@@ -9179,9 +9658,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9299,25 +9781,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9339,9 +9811,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD65A83-08FE-4EEE-914F-E77FC6A9AA01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44848A5-06DF-4B81-8B33-A81B8792BE56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="356">
   <si>
     <t>SearchID</t>
   </si>
@@ -3854,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5102,7 +5102,10 @@
         <v>329</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>161</v>
+        <v>234</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="AO11" s="10" t="s">
         <v>353</v>
@@ -5230,7 +5233,10 @@
         <v>330</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>161</v>
+        <v>234</v>
+      </c>
+      <c r="AN12" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="AO12" s="10" t="s">
         <v>353</v>
@@ -5358,7 +5364,10 @@
         <v>331</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>161</v>
+        <v>234</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="AO13" s="10" t="s">
         <v>353</v>
@@ -9658,12 +9667,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9781,15 +9787,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9811,16 +9827,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44848A5-06DF-4B81-8B33-A81B8792BE56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE77A0-AEC8-4B04-988A-AF06125B871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$31</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -3854,38 +3854,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView tabSelected="1" topLeftCell="AI4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU25" sqref="AU25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" customWidth="1"/>
+    <col min="18" max="18" width="20.36328125" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" customWidth="1"/>
+    <col min="20" max="20" width="14.36328125" customWidth="1"/>
+    <col min="22" max="22" width="14.08984375" customWidth="1"/>
     <col min="24" max="24" width="40" customWidth="1"/>
-    <col min="25" max="25" width="32.6640625" customWidth="1"/>
-    <col min="33" max="33" width="21.109375" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="40" width="15.88671875" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
+    <col min="25" max="25" width="32.6328125" customWidth="1"/>
+    <col min="33" max="33" width="21.08984375" customWidth="1"/>
+    <col min="34" max="35" width="17.6328125" customWidth="1"/>
+    <col min="36" max="36" width="18.6328125" customWidth="1"/>
+    <col min="37" max="37" width="19.08984375" customWidth="1"/>
+    <col min="38" max="38" width="17.6328125" customWidth="1"/>
+    <col min="39" max="39" width="14.36328125" customWidth="1"/>
+    <col min="40" max="40" width="15.90625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.08984375" customWidth="1"/>
+    <col min="47" max="47" width="18.6328125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="AW1" s="13"/>
       <c r="AX1" s="13"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>251</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>261</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>261</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>261</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>271</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>336</v>
       </c>
       <c r="AV7" s="10" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="AW7" s="10" t="s">
         <v>210</v>
@@ -4647,7 +4647,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>271</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>337</v>
       </c>
       <c r="AV8" s="10" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="AW8" s="10" t="s">
         <v>210</v>
@@ -4766,7 +4766,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>271</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>338</v>
       </c>
       <c r="AV9" s="10" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="AW9" s="10" t="s">
         <v>209</v>
@@ -4885,7 +4885,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>271</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>339</v>
       </c>
       <c r="AV10" s="10" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="AW10" s="10" t="s">
         <v>210</v>
@@ -5004,7 +5004,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>279</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>279</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>279</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>279</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>279</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>279</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>288</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>323</v>
       </c>
       <c r="AV17" s="10" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="AW17" s="10" t="s">
         <v>210</v>
@@ -5900,7 +5900,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>288</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>288</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>288</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>288</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>288</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>288</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>320</v>
       </c>
       <c r="AV23" s="10" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="AW23" s="10" t="s">
         <v>210</v>
@@ -6611,7 +6611,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>288</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>288</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>297</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>297</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>297</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>279</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>279</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>279</v>
       </c>
@@ -7720,19 +7720,19 @@
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="24.44140625" customWidth="1"/>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.453125" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="26.36328125" customWidth="1"/>
     <col min="42" max="42" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -7797,7 +7797,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>164</v>
       </c>
@@ -8496,22 +8496,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP19" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>117</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>131</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>139</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>146</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>149</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>151</v>
       </c>
@@ -8625,12 +8625,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP29" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>153</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>131</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>155</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>157</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>159</v>
       </c>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>115</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>213</v>
       </c>
@@ -8762,10 +8762,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -8793,37 +8793,37 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.90625" customWidth="1"/>
+    <col min="19" max="19" width="17.6328125" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="21" max="21" width="17.6328125" customWidth="1"/>
+    <col min="26" max="26" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.36328125" customWidth="1"/>
+    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -8870,7 +8870,7 @@
       <c r="AF1" s="13"/>
       <c r="AG1" s="13"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>121</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>122</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>154</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>158</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>230</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>115</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>129</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>143</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>148</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>150</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>152</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>124</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>144</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>125</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>145</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>130</v>
       </c>
@@ -9642,12 +9642,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>152</v>
       </c>
@@ -9798,14 +9798,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE77A0-AEC8-4B04-988A-AF06125B871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C704FE5-C42E-45CF-BECA-34E75539DA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -3342,9 +3342,6 @@
     <t>210Pb</t>
   </si>
   <si>
-    <t>sedimend grain size</t>
-  </si>
-  <si>
     <t>surface thickness</t>
   </si>
   <si>
@@ -3394,6 +3391,9 @@
   </si>
   <si>
     <t>exploitation rate</t>
+  </si>
+  <si>
+    <t>sediment grain size</t>
   </si>
 </sst>
 </file>
@@ -3525,7 +3525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3539,13 +3539,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3854,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU25" sqref="AU25"/>
+    <sheetView tabSelected="1" topLeftCell="AM16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3886,70 +3884,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="15" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="18" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="12" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="13" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4103,3487 +4101,3487 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3">
         <v>2015</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s">
         <v>249</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s">
         <v>256</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" t="s">
         <v>258</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" t="s">
         <v>246</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" t="s">
         <v>259</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" t="s">
         <v>247</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" t="s">
         <v>248</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" t="s">
         <v>246</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" t="s">
         <v>84</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <v>2014</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" t="s">
         <v>266</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" t="s">
         <v>246</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" t="s">
         <v>270</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" t="s">
         <v>247</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" t="s">
         <v>248</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" t="s">
         <v>246</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" t="s">
         <v>217</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5">
+        <v>2014</v>
+      </c>
+      <c r="F5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" t="s">
         <v>350</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="W5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA5">
         <v>2</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB5">
         <v>2</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD5" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6">
+        <v>2014</v>
+      </c>
+      <c r="F6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" t="s">
+        <v>246</v>
+      </c>
+      <c r="M6" t="s">
+        <v>270</v>
+      </c>
+      <c r="N6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" t="s">
+        <v>248</v>
+      </c>
+      <c r="P6" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>351</v>
+      </c>
+      <c r="W6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z6" t="s">
         <v>349</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF6" t="s">
         <v>307</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AG6" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AH6" t="s">
         <v>126</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AL6" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7">
+        <v>2014</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" t="s">
+        <v>278</v>
+      </c>
+      <c r="N7" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8">
+        <v>2014</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" t="s">
+        <v>278</v>
+      </c>
+      <c r="N8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" t="s">
+        <v>248</v>
+      </c>
+      <c r="P8" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9">
+        <v>2014</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9" t="s">
+        <v>277</v>
+      </c>
+      <c r="L9" t="s">
+        <v>246</v>
+      </c>
+      <c r="M9" t="s">
+        <v>278</v>
+      </c>
+      <c r="N9" t="s">
+        <v>247</v>
+      </c>
+      <c r="O9" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>355</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10">
+        <v>2014</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" t="s">
+        <v>278</v>
+      </c>
+      <c r="N10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P10" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" t="s">
+        <v>340</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>341</v>
+      </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>338</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11">
+        <v>2014</v>
+      </c>
+      <c r="F11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" t="s">
+        <v>284</v>
+      </c>
+      <c r="K11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L11" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11" t="s">
+        <v>247</v>
+      </c>
+      <c r="O11" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL11" t="s">
         <v>329</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AM11" t="s">
         <v>234</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AN11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12">
+        <v>2014</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" t="s">
+        <v>285</v>
+      </c>
+      <c r="L12" t="s">
+        <v>246</v>
+      </c>
+      <c r="M12" t="s">
+        <v>286</v>
+      </c>
+      <c r="N12" t="s">
+        <v>247</v>
+      </c>
+      <c r="O12" t="s">
+        <v>248</v>
+      </c>
+      <c r="P12" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13">
+        <v>2014</v>
+      </c>
+      <c r="F13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" t="s">
+        <v>282</v>
+      </c>
+      <c r="I13" t="s">
+        <v>283</v>
+      </c>
+      <c r="J13" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" t="s">
+        <v>246</v>
+      </c>
+      <c r="M13" t="s">
+        <v>286</v>
+      </c>
+      <c r="N13" t="s">
+        <v>247</v>
+      </c>
+      <c r="O13" t="s">
+        <v>248</v>
+      </c>
+      <c r="P13" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>332</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14">
+        <v>2014</v>
+      </c>
+      <c r="F14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" t="s">
+        <v>283</v>
+      </c>
+      <c r="J14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" t="s">
+        <v>286</v>
+      </c>
+      <c r="N14" t="s">
+        <v>247</v>
+      </c>
+      <c r="O14" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" t="s">
+        <v>55</v>
+      </c>
+      <c r="X14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN14" t="s">
         <v>162</v>
       </c>
-      <c r="AO4" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ4" s="10" t="s">
+      <c r="AO14" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>166</v>
       </c>
-      <c r="AU4" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="AV4" s="10" t="s">
+      <c r="AR14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV14" t="s">
         <v>201</v>
       </c>
-      <c r="AW4" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX4" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="AW14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15">
         <v>2014</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J15" t="s">
+        <v>284</v>
+      </c>
+      <c r="K15" t="s">
+        <v>285</v>
+      </c>
+      <c r="L15" t="s">
+        <v>246</v>
+      </c>
+      <c r="M15" t="s">
+        <v>286</v>
+      </c>
+      <c r="N15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O15" t="s">
+        <v>248</v>
+      </c>
+      <c r="P15" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16">
+        <v>2014</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" t="s">
+        <v>283</v>
+      </c>
+      <c r="J16" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L16" t="s">
+        <v>246</v>
+      </c>
+      <c r="M16" t="s">
+        <v>286</v>
+      </c>
+      <c r="N16" t="s">
+        <v>247</v>
+      </c>
+      <c r="O16" t="s">
+        <v>248</v>
+      </c>
+      <c r="P16" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17">
+        <v>2014</v>
+      </c>
+      <c r="F17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="I17" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" t="s">
+        <v>294</v>
+      </c>
+      <c r="K17" t="s">
+        <v>295</v>
+      </c>
+      <c r="L17" t="s">
         <v>246</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="M17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N17" t="s">
         <v>247</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O17" t="s">
         <v>248</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P17" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s">
+        <v>47</v>
+      </c>
+      <c r="X17" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18">
+        <v>2014</v>
+      </c>
+      <c r="F18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" t="s">
+        <v>292</v>
+      </c>
+      <c r="H18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" t="s">
+        <v>293</v>
+      </c>
+      <c r="J18" t="s">
+        <v>294</v>
+      </c>
+      <c r="K18" t="s">
+        <v>295</v>
+      </c>
+      <c r="L18" t="s">
         <v>246</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="M18" t="s">
+        <v>296</v>
+      </c>
+      <c r="N18" t="s">
+        <v>247</v>
+      </c>
+      <c r="O18" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q18" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="10" t="s">
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" t="s">
+        <v>49</v>
+      </c>
+      <c r="V18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19">
+        <v>2014</v>
+      </c>
+      <c r="F19" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="H19" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" t="s">
+        <v>293</v>
+      </c>
+      <c r="J19" t="s">
+        <v>294</v>
+      </c>
+      <c r="K19" t="s">
+        <v>295</v>
+      </c>
+      <c r="L19" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" t="s">
+        <v>296</v>
+      </c>
+      <c r="N19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O19" t="s">
+        <v>248</v>
+      </c>
+      <c r="P19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20">
+        <v>2014</v>
+      </c>
+      <c r="F20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J20" t="s">
+        <v>294</v>
+      </c>
+      <c r="K20" t="s">
+        <v>295</v>
+      </c>
+      <c r="L20" t="s">
+        <v>246</v>
+      </c>
+      <c r="M20" t="s">
+        <v>296</v>
+      </c>
+      <c r="N20" t="s">
+        <v>247</v>
+      </c>
+      <c r="O20" t="s">
+        <v>248</v>
+      </c>
+      <c r="P20" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s">
+        <v>47</v>
+      </c>
+      <c r="X20" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21">
+        <v>2014</v>
+      </c>
+      <c r="F21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I21" t="s">
+        <v>293</v>
+      </c>
+      <c r="J21" t="s">
+        <v>294</v>
+      </c>
+      <c r="K21" t="s">
+        <v>295</v>
+      </c>
+      <c r="L21" t="s">
+        <v>246</v>
+      </c>
+      <c r="M21" t="s">
+        <v>296</v>
+      </c>
+      <c r="N21" t="s">
+        <v>247</v>
+      </c>
+      <c r="O21" t="s">
+        <v>248</v>
+      </c>
+      <c r="P21" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s">
+        <v>47</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>325</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22">
+        <v>2014</v>
+      </c>
+      <c r="F22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J22" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" t="s">
+        <v>296</v>
+      </c>
+      <c r="N22" t="s">
+        <v>247</v>
+      </c>
+      <c r="O22" t="s">
+        <v>248</v>
+      </c>
+      <c r="P22" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>322</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23">
+        <v>2014</v>
+      </c>
+      <c r="F23" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" t="s">
+        <v>265</v>
+      </c>
+      <c r="I23" t="s">
+        <v>293</v>
+      </c>
+      <c r="J23" t="s">
+        <v>294</v>
+      </c>
+      <c r="K23" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" t="s">
+        <v>246</v>
+      </c>
+      <c r="M23" t="s">
+        <v>296</v>
+      </c>
+      <c r="N23" t="s">
+        <v>247</v>
+      </c>
+      <c r="O23" t="s">
+        <v>248</v>
+      </c>
+      <c r="P23" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23">
+        <v>3</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>320</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24">
+        <v>2014</v>
+      </c>
+      <c r="F24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" t="s">
+        <v>293</v>
+      </c>
+      <c r="J24" t="s">
+        <v>294</v>
+      </c>
+      <c r="K24" t="s">
+        <v>295</v>
+      </c>
+      <c r="L24" t="s">
+        <v>246</v>
+      </c>
+      <c r="M24" t="s">
+        <v>296</v>
+      </c>
+      <c r="N24" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" t="s">
+        <v>248</v>
+      </c>
+      <c r="P24" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U24" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s">
+        <v>47</v>
+      </c>
+      <c r="X24" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA24">
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25">
+        <v>2014</v>
+      </c>
+      <c r="F25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" t="s">
+        <v>265</v>
+      </c>
+      <c r="I25" t="s">
+        <v>293</v>
+      </c>
+      <c r="J25" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="s">
+        <v>296</v>
+      </c>
+      <c r="N25" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" t="s">
+        <v>49</v>
+      </c>
+      <c r="V25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s">
+        <v>47</v>
+      </c>
+      <c r="X25" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26">
+        <v>2014</v>
+      </c>
+      <c r="F26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" t="s">
+        <v>246</v>
+      </c>
+      <c r="I26" t="s">
+        <v>301</v>
+      </c>
+      <c r="J26" t="s">
+        <v>302</v>
+      </c>
+      <c r="K26" t="s">
+        <v>303</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s">
+        <v>304</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>248</v>
+      </c>
+      <c r="P26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27">
+        <v>2014</v>
+      </c>
+      <c r="F27" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I27" t="s">
+        <v>301</v>
+      </c>
+      <c r="J27" t="s">
+        <v>302</v>
+      </c>
+      <c r="K27" t="s">
+        <v>303</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="s">
+        <v>304</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>248</v>
+      </c>
+      <c r="P27" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28">
+        <v>2014</v>
+      </c>
+      <c r="F28" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" t="s">
+        <v>246</v>
+      </c>
+      <c r="I28" t="s">
+        <v>301</v>
+      </c>
+      <c r="J28" t="s">
+        <v>302</v>
+      </c>
+      <c r="K28" t="s">
+        <v>303</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s">
+        <v>304</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>248</v>
+      </c>
+      <c r="P28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29">
+        <v>2014</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I29" t="s">
+        <v>283</v>
+      </c>
+      <c r="J29" t="s">
+        <v>284</v>
+      </c>
+      <c r="K29" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="s">
+        <v>286</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>248</v>
+      </c>
+      <c r="P29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U29" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA5" s="10">
+      <c r="V29" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA29">
         <v>2</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB29">
         <v>2</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC29">
         <v>3</v>
       </c>
-      <c r="AD5" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AD29" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF29" t="s">
         <v>307</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AG29" t="s">
         <v>113</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AH29" t="s">
         <v>126</v>
       </c>
-      <c r="AL5" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AL29" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM29" t="s">
         <v>234</v>
       </c>
-      <c r="AN5" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AN29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ29" t="s">
         <v>166</v>
       </c>
-      <c r="AU5" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AR29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV29" t="s">
         <v>201</v>
       </c>
-      <c r="AW5" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX5" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="AW29" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30">
         <v>2014</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6" s="10" t="s">
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>250</v>
+      </c>
+      <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="I30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
         <v>246</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="N6" s="10" t="s">
+      <c r="M30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N30" t="s">
         <v>247</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O30" t="s">
         <v>248</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" t="s">
+        <v>55</v>
+      </c>
+      <c r="X30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31">
+        <v>2014</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" t="s">
+        <v>282</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" t="s">
         <v>246</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="M31" t="s">
+        <v>286</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>248</v>
+      </c>
+      <c r="P31" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q31" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="10" t="s">
+      <c r="S31" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U31" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z6" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA6" s="10">
+      <c r="V31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+      <c r="X31" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA31">
         <v>2</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB31">
         <v>2</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC31">
         <v>3</v>
       </c>
-      <c r="AD6" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AD31" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF31" t="s">
         <v>307</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AG31" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="10" t="s">
+      <c r="AH31" t="s">
         <v>126</v>
       </c>
-      <c r="AL6" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="AM6" s="10" t="s">
+      <c r="AL31" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM31" t="s">
         <v>234</v>
       </c>
-      <c r="AN6" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO6" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ6" s="10" t="s">
+      <c r="AN31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ31" t="s">
         <v>166</v>
       </c>
-      <c r="AU6" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="AV6" s="10" t="s">
+      <c r="AR31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV31" t="s">
         <v>201</v>
       </c>
-      <c r="AW6" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX6" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM7" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ7" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM8" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR8" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU8" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="AV8" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW8" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX8" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF9" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM9" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ9" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR9" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU9" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="AV9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW9" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX9" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI10" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM10" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO10" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ10" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR10" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU10" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW10" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX10" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD11" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF11" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG11" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL11" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM11" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR11" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT11" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="AU11" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW11" s="10" t="s">
+      <c r="AW31" t="s">
         <v>212</v>
       </c>
-      <c r="AX11" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL12" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM12" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN12" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO12" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR12" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS12" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT12" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="AU12" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV12" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW12" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX12" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF13" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH13" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL13" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM13" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN13" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO13" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ13" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR13" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS13" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT13" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="AU13" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV13" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW13" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX13" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF14" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL14" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM14" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN14" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO14" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ14" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AU14" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV14" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW14" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX14" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM15" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ15" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT15" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AU15" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV15" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW15" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX15" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA16" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF16" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH16" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL16" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM16" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN16" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO16" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ16" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT16" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AU16" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV16" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW16" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX16" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF17" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG17" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI17" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM17" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO17" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ17" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR17" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU17" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="AV17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW17" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX17" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z18" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF18" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI18" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM18" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO18" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ18" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR18" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU18" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV18" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW18" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX18" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA19" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF19" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH19" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI19" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM19" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO19" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ19" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR19" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU19" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="AV19" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW19" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX19" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E20" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA20" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF20" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG20" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI20" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM20" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO20" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ20" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR20" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU20" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV20" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW20" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX20" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA21" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB21" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF21" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI21" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM21" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO21" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ21" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR21" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU21" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="AV21" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW21" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX21" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA22" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM22" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO22" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ22" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR22" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU22" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="AV22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX22" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z23" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA23" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF23" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG23" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI23" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM23" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO23" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ23" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR23" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU23" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="AV23" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW23" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX23" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X24" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA24" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB24" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC24" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF24" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH24" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM24" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO24" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ24" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR24" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU24" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="AV24" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW24" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X25" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA25" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB25" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF25" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH25" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM25" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO25" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ25" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR25" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU25" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW25" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E26" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="X26" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z26" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA26" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB26" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF26" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG26" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH26" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI26" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK26" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM26" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO26" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ26" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR26" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU26" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="AV26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW26" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX26" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E27" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="X27" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z27" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA27" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB27" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF27" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG27" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH27" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI27" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK27" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM27" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO27" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ27" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR27" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU27" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AV27" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW27" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX27" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="X28" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z28" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA28" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB28" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF28" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG28" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH28" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI28" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK28" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM28" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO28" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR28" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU28" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AV28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW28" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX28" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA29" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB29" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF29" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH29" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL29" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM29" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN29" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO29" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ29" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR29" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT29" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AU29" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV29" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW29" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX29" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E30" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W30" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X30" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z30" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA30" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB30" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD30" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF30" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG30" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH30" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL30" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM30" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN30" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO30" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ30" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR30" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT30" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AU30" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV30" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW30" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX30" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="10">
-        <v>2014</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X31" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z31" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA31" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB31" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD31" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF31" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH31" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL31" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM31" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN31" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO31" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ31" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR31" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT31" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AU31" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV31" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW31" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX31" s="10" t="s">
+      <c r="AX31" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7714,7 +7712,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AX38"/>
+  <dimension ref="A1:AW38"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
@@ -7733,69 +7731,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="15" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="18" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="12" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="9" t="s">
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -8114,7 +8112,7 @@
       <c r="AV5" t="s">
         <v>212</v>
       </c>
-      <c r="AW5" s="8"/>
+      <c r="AW5" s="7"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -8502,7 +8500,7 @@
       </c>
     </row>
     <row r="19" spans="34:47" x14ac:dyDescent="0.35">
-      <c r="AP19" s="7" t="s">
+      <c r="AP19" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8705,7 +8703,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>157</v>
       </c>
@@ -8725,7 +8723,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>159</v>
       </c>
@@ -8738,9 +8736,8 @@
       <c r="AU34" t="s">
         <v>196</v>
       </c>
-      <c r="AX34" s="7"/>
-    </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>115</v>
       </c>
@@ -8754,7 +8751,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>213</v>
       </c>
@@ -8762,10 +8759,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -8824,51 +8821,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="18" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="12" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="13" t="s">
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -9361,7 +9358,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>223</v>
       </c>
       <c r="R12" t="s">
@@ -9667,14 +9664,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -9787,31 +9787,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE4503D8-DBB8-47D1-8254-E14A8D52E4FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9827,9 +9817,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_garcia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C704FE5-C42E-45CF-BECA-34E75539DA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F33F5-2BEC-44B4-A5A8-88CA9D3CC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="356">
   <si>
     <t>SearchID</t>
   </si>
@@ -3852,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU10" sqref="AU10"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AU25" sqref="AU25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5987,9 +5987,12 @@
         <v>109</v>
       </c>
       <c r="AH18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK18" t="s">
         <v>152</v>
       </c>
       <c r="AM18" t="s">
@@ -6106,9 +6109,12 @@
         <v>109</v>
       </c>
       <c r="AH19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK19" t="s">
         <v>152</v>
       </c>
       <c r="AM19" t="s">
@@ -6225,9 +6231,12 @@
         <v>109</v>
       </c>
       <c r="AH20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK20" t="s">
         <v>152</v>
       </c>
       <c r="AM20" t="s">
@@ -6344,9 +6353,12 @@
         <v>109</v>
       </c>
       <c r="AH21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK21" t="s">
         <v>152</v>
       </c>
       <c r="AM21" t="s">
@@ -6463,7 +6475,10 @@
         <v>109</v>
       </c>
       <c r="AH22" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>152</v>
       </c>
       <c r="AM22" t="s">
         <v>235</v>
@@ -6579,10 +6594,10 @@
         <v>109</v>
       </c>
       <c r="AH23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI23" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s">
         <v>235</v>
@@ -6698,7 +6713,10 @@
         <v>109</v>
       </c>
       <c r="AH24" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>152</v>
       </c>
       <c r="AM24" t="s">
         <v>235</v>
@@ -6811,7 +6829,10 @@
         <v>109</v>
       </c>
       <c r="AH25" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>152</v>
       </c>
       <c r="AM25" t="s">
         <v>235</v>
@@ -7596,16 +7617,19 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3 P4:P1048576" xr:uid="{94D9E4B8-8CAC-4DF7-B103-381F2E763A04}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{CDD3EED4-4DBF-4EF5-89FE-CF293CC9E6AE}">
+  <dataValidations count="5">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3 P4:P1048576" xr:uid="{B163743A-2501-4EBC-B684-5F96E359DDB4}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{293B614E-D3BF-468C-922A-D6F1061CCD30}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{66955D55-6B86-47ED-A1C8-EF56593D3E89}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{095A0138-C572-4C84-9017-734EA532F3A6}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AR3:AS1048576 AN3:AN1048576" xr:uid="{594C1387-AE3C-4760-B762-6E559D878816}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{1D7A2264-9F6E-4ABB-8DCB-9695097A7AE8}">
       <formula1>INDIRECT(AH3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK18:AK21" xr:uid="{51AEE8DD-07E5-4C9D-A76D-61E55755BEFA}">
+      <formula1>INDIRECT(AH18)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7614,91 +7638,91 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01D0C1BE-F1CF-481E-9DEF-C3F47861742D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A63DA884-8271-43CE-841E-BDF69EDE8BB5}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
           <xm:sqref>Q3:Q31 R32:R1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20F9CC37-131A-42B9-8F83-979A197B2078}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7CB2573-289D-4F79-975F-936FAAFA3856}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
           <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{544DF5E5-3907-4A71-B9BE-220B97ADC5EB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFA2452F-CC01-4C4A-A9B9-7D0E1BB91A66}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BD36B17-8090-4C41-81CE-D463FE20A542}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{717464B3-0AAD-4358-BCCF-6777490C7420}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4CB7196-CE28-4B05-BBD8-74610FD48191}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E2522DCD-21E8-44B2-87F2-D65C9450FA8D}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B2136C9-F8B1-48E0-9FF8-2AEF18AC8DFE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{57D26FA0-DA88-4A92-AEB2-08C7BA5BB1C3}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F87A3F0C-0AAB-4D09-AEDB-06A1AC0832F5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F8F5A0E8-81A4-4A3F-869E-AC1A323B332B}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5737408-7BF9-4819-8D3A-1C8B860094C8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E8A0A59-BFBF-4E02-89A8-F56B63BD42FB}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9E5CF0F-E8C9-4715-9E5B-31233202C042}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0287F21D-E2F1-4BD5-A780-9F22A2308518}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D1007E0-C42D-4263-9537-65CAB01FDF95}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D2D24C8-E8A7-4DEE-8BD0-826C9B6509AD}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08DAFEBD-4D10-4592-8426-D58C43E6DCDD}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{215C16E4-375C-441A-8B76-6077DC9C9A85}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F88A4666-23F0-4643-B15E-8635E95BC5A1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A8EA27B-17F1-41C2-8635-E481E87425BE}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E27B1E5-1268-4786-94CA-E08C9AB497C6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43B96EBC-03F0-4EC3-A1AA-DF62B01C018B}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98C39F1E-6DE8-417C-8077-8E0C203BE60B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0868836-EFBC-4280-8FB4-A9F6ACCB87BA}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67B9B494-D832-470F-850F-706DD98F1FC9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88664B7E-7566-4F4A-85E7-D4D1C0137283}">
           <x14:formula1>
             <xm:f>Validation!$AU$3:$AU$15</xm:f>
           </x14:formula1>
@@ -9673,6 +9697,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -9786,12 +9816,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -9801,6 +9825,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE4503D8-DBB8-47D1-8254-E14A8D52E4FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9814,19 +9853,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>